--- a/MitchIDPs.xlsx
+++ b/MitchIDPs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,509 +473,67 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ellie Jean</t>
+          <t>Cansu Kara</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Video</t>
+          <t>Player Meeting</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Overall</t>
+          <t>Future</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Mitch</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>vs Palmerias</t>
-        </is>
-      </c>
+          <t>Jo</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sarah Weber</t>
+          <t>Leah Crotty</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Combined</t>
+          <t>Individual</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Finishing</t>
+          <t>Technical Work</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bev</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>Jo</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
       <c r="G3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Marisa DiGrande</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Combined</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Finishing</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2025-07-28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Bev</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Jordan Baggett</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Combined</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Finishing</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2025-07-28</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Bev</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Ella Hase</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Combined</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Finishing</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2025-07-28</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Bev</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Bethany Balcer</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Combined</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Finishing</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2025-07-28</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Bev</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Kayla Fischer</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Combined</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Finishing</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2025-07-28</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Bev</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Marisa DiGrande</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Video</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Overall</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Mitch</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>vs Lexington &amp; São Paolo</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Ella Hase</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Video</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Overall</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2025-07-18</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Mitch</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>vs Lexington</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Bethany Balcer</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Group</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Finishing</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2025-07-15</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Mitch</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Katie O'Kane</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Group</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Finishing</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2025-07-15</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Mitch</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Savannah DeMelo</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Group</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Finishing</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2025-07-15</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Mitch</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Uchenna Kanu</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Group</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Finishing</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2025-07-15</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Mitch</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Marisa DiGrande</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Group</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Finishing</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2025-07-15</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Mitch</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Jordan Baggett</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Group</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Finishing</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2025-07-15</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Mitch</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Ella Hase</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Video</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Overall</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Bev &amp; Mitch</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
